--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2208.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2208.xlsx
@@ -354,10 +354,10 @@
         <v>1.598230168907222</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.066028194364196</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2208.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2208.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.005301974135851</v>
+        <v>0.9445658922195435</v>
       </c>
       <c r="B1">
-        <v>1.598230168907222</v>
+        <v>2.14838981628418</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>8.517941474914551</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.763637185096741</v>
       </c>
       <c r="E1">
-        <v>1.066028194364196</v>
+        <v>1.404836416244507</v>
       </c>
     </row>
   </sheetData>
